--- a/lotacaoNova.xlsx
+++ b/lotacaoNova.xlsx
@@ -71,19 +71,49 @@
     <t>SIM</t>
   </si>
   <si>
+    <t>Professor 16</t>
+  </si>
+  <si>
+    <t>Professor 8</t>
+  </si>
+  <si>
+    <t>Professor 28</t>
+  </si>
+  <si>
     <t>Professor 1</t>
   </si>
   <si>
+    <t>Professor 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAO </t>
+  </si>
+  <si>
     <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
   </si>
   <si>
+    <t>Professor 12</t>
+  </si>
+  <si>
     <t>Professor 22</t>
   </si>
   <si>
+    <t>Professor 5</t>
+  </si>
+  <si>
     <t>Professor 2</t>
   </si>
   <si>
-    <t>Professor 12</t>
+    <t>EEEF JOAO PAULO II</t>
+  </si>
+  <si>
+    <t>Professor 25</t>
+  </si>
+  <si>
+    <t>Professor 6</t>
+  </si>
+  <si>
+    <t>Professor 14</t>
   </si>
   <si>
     <t>EEEF PATALINO</t>
@@ -92,6 +122,12 @@
     <t>Professor 4</t>
   </si>
   <si>
+    <t>Professor 18</t>
+  </si>
+  <si>
+    <t>Professor 29</t>
+  </si>
+  <si>
     <t>EEEFM DO ROCHA</t>
   </si>
   <si>
@@ -102,42 +138,6 @@
   </si>
   <si>
     <t>Professor 13</t>
-  </si>
-  <si>
-    <t>Professor 28</t>
-  </si>
-  <si>
-    <t>Professor 8</t>
-  </si>
-  <si>
-    <t>Professor 14</t>
-  </si>
-  <si>
-    <t>Professor 5</t>
-  </si>
-  <si>
-    <t>EEEF JOAO PAULO II</t>
-  </si>
-  <si>
-    <t>Professor 25</t>
-  </si>
-  <si>
-    <t>Professor 6</t>
-  </si>
-  <si>
-    <t>Professor 16</t>
-  </si>
-  <si>
-    <t>Professor 29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAO </t>
-  </si>
-  <si>
-    <t>Professor 18</t>
-  </si>
-  <si>
-    <t>Professor 9</t>
   </si>
   <si>
     <t>MATRICULA</t>
@@ -1265,12 +1265,12 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="10" max="10" width="21.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="14.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1372,10 +1372,10 @@
         <v>15</v>
       </c>
       <c r="H3">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -1384,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="L3">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1398,25 +1398,25 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>15550079</v>
+        <v>15055582</v>
       </c>
       <c r="F4">
-        <v>1920928040000</v>
+        <v>1920914550000</v>
       </c>
       <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>2002</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
         <v>19</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
@@ -1436,25 +1436,25 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>15550079</v>
+        <v>15055582</v>
       </c>
       <c r="F5">
-        <v>1920928040000</v>
+        <v>1920914550000</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>2002</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
@@ -1474,25 +1474,25 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>15550079</v>
+        <v>15055582</v>
       </c>
       <c r="F6">
-        <v>1920928040000</v>
+        <v>1920914550000</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I6">
         <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
@@ -1512,31 +1512,31 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>15057291</v>
+        <v>15055582</v>
       </c>
       <c r="F7">
-        <v>1920913530000</v>
+        <v>1920914550000</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>2002</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1550,25 +1550,25 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>15057046</v>
+        <v>15550079</v>
       </c>
       <c r="F8">
-        <v>1920914340000</v>
+        <v>1920928040000</v>
       </c>
       <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>2003</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
         <v>25</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
       </c>
       <c r="K8" t="s">
         <v>17</v>
@@ -1588,25 +1588,25 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>15057046</v>
+        <v>15550079</v>
       </c>
       <c r="F9">
-        <v>1920914340000</v>
+        <v>1920928040000</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9">
-        <v>2002</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
         <v>17</v>
@@ -1626,25 +1626,25 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>15057046</v>
+        <v>15550079</v>
       </c>
       <c r="F10">
-        <v>1920914340000</v>
+        <v>1920928040000</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I10">
         <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
         <v>17</v>
@@ -1664,25 +1664,25 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>15055582</v>
+        <v>15550079</v>
       </c>
       <c r="F11">
-        <v>1920914550000</v>
+        <v>1920928040000</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2002</v>
       </c>
       <c r="I11">
         <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
@@ -1702,19 +1702,19 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>15055582</v>
+        <v>15056651</v>
       </c>
       <c r="F12">
-        <v>1920914550000</v>
+        <v>1920932310000</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>2002</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>40</v>
@@ -1740,19 +1740,19 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>15055582</v>
+        <v>15056651</v>
       </c>
       <c r="F13">
-        <v>1920914550000</v>
+        <v>1920932310000</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I13">
         <v>20</v>
@@ -1778,22 +1778,22 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>15550079</v>
+        <v>15056651</v>
       </c>
       <c r="F14">
-        <v>1920928040000</v>
+        <v>1920932310000</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="I14">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
         <v>32</v>
@@ -1802,7 +1802,7 @@
         <v>17</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1816,22 +1816,22 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>15056651</v>
+        <v>15057291</v>
       </c>
       <c r="F15">
-        <v>1920932310000</v>
+        <v>1920913530000</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2002</v>
       </c>
       <c r="I15">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
         <v>34</v>
@@ -1840,7 +1840,7 @@
         <v>17</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1854,22 +1854,22 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>15056651</v>
+        <v>15057291</v>
       </c>
       <c r="F16">
-        <v>1920932310000</v>
+        <v>1920913530000</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
       </c>
       <c r="H16">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="I16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s">
         <v>35</v>
@@ -1878,7 +1878,7 @@
         <v>17</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1892,31 +1892,31 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>15056651</v>
+        <v>15057291</v>
       </c>
       <c r="F17">
-        <v>1920932310000</v>
+        <v>1920913530000</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
       </c>
       <c r="H17">
-        <v>2003</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s">
         <v>36</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1930,16 +1930,16 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>15057291</v>
+        <v>15057046</v>
       </c>
       <c r="F18">
-        <v>1920913530000</v>
+        <v>1920914340000</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1948,10 +1948,10 @@
         <v>40</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L18">
         <v>40</v>
@@ -1968,19 +1968,19 @@
         <v>14</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>15057291</v>
+        <v>15057046</v>
       </c>
       <c r="F19">
-        <v>1920913530000</v>
+        <v>1920914340000</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I19">
         <v>40</v>
@@ -2006,19 +2006,19 @@
         <v>14</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>15055582</v>
+        <v>15057046</v>
       </c>
       <c r="F20">
-        <v>1920914550000</v>
+        <v>1920914340000</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="I20">
         <v>40</v>
@@ -2027,7 +2027,7 @@
         <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L20">
         <v>40</v>
@@ -2165,7 +2165,7 @@
         <v>1920913530000</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -2281,7 +2281,7 @@
         <v>17</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="O3" s="2">
         <v>44153</v>
@@ -2355,7 +2355,7 @@
         <v>1920914340000</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>2003</v>
@@ -2376,7 +2376,7 @@
         <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="O4" s="2">
         <v>44152</v>
@@ -2450,7 +2450,7 @@
         <v>1920932310000</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2545,7 +2545,7 @@
         <v>1920932310000</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>2003</v>
@@ -2640,7 +2640,7 @@
         <v>1920932310000</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>2002</v>
@@ -2830,7 +2830,7 @@
         <v>1920932310000</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>2002</v>
@@ -2848,7 +2848,7 @@
         <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
         <v>63</v>
@@ -2943,7 +2943,7 @@
         <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s">
         <v>63</v>
@@ -3020,7 +3020,7 @@
         <v>1920932310000</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>2003</v>
@@ -3038,7 +3038,7 @@
         <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
         <v>63</v>
@@ -3133,7 +3133,7 @@
         <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
         <v>63</v>

--- a/lotacaoNova.xlsx
+++ b/lotacaoNova.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Professor 1</t>
+          <t>Professor 7</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -620,14 +620,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2003</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Professor 16</t>
+          <t>Professor 26</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -698,28 +698,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>15550079</v>
+        <v>15055582</v>
       </c>
       <c r="F6" t="n">
-        <v>1920928040000</v>
+        <v>1920914550000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
+          <t>EEEM ANDRE ALVES</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>2003</v>
       </c>
       <c r="I6" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Professor 18</t>
+          <t>Professor 16</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -744,28 +744,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>15550079</v>
+        <v>15055582</v>
       </c>
       <c r="F7" t="n">
-        <v>1920928040000</v>
+        <v>1920914550000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
+          <t>EEEM ANDRE ALVES</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2002</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>40</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Professor 5</t>
+          <t>Professor 27</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -790,28 +790,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>15550079</v>
+        <v>15055582</v>
       </c>
       <c r="F8" t="n">
-        <v>1920928040000</v>
+        <v>1920914550000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
+          <t>EEEM ANDRE ALVES</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I8" t="n">
         <v>40</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Professor 15</t>
+          <t>Professor 1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Professor 12</t>
+          <t>Professor 17</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -896,14 +896,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2002</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>40</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Professor 2</t>
+          <t>Professor 22</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -942,14 +942,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2003</v>
       </c>
       <c r="I11" t="n">
         <v>40</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Professor 22</t>
+          <t>Professor 15</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>15056651</v>
+        <v>15550079</v>
       </c>
       <c r="F12" t="n">
-        <v>1920932310000</v>
+        <v>1920928040000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>EEEF JOAO PAULO II</t>
+          <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>2002</v>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Professor 6</t>
+          <t>Professor 2</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -1020,28 +1020,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>15056651</v>
+        <v>15550079</v>
       </c>
       <c r="F13" t="n">
-        <v>1920932310000</v>
+        <v>1920928040000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>EEEF JOAO PAULO II</t>
+          <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I13" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Professor 14</t>
+          <t>Professor 5</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -1066,17 +1066,17 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>15057291</v>
+        <v>15550079</v>
       </c>
       <c r="F14" t="n">
-        <v>1920913530000</v>
+        <v>1920928040000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>EEEF PATALINO</t>
+          <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Professor 11</t>
+          <t>Professor 18</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1112,28 +1112,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>15057291</v>
+        <v>15550079</v>
       </c>
       <c r="F15" t="n">
-        <v>1920913530000</v>
+        <v>1920928040000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>EEEF PATALINO</t>
+          <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="I15" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Professor 4</t>
+          <t>Professor 12</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -1158,28 +1158,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>15057291</v>
+        <v>15056651</v>
       </c>
       <c r="F16" t="n">
-        <v>1920913530000</v>
+        <v>1920932310000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>EEEF PATALINO</t>
+          <t>EEEF JOAO PAULO II</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2003</v>
       </c>
       <c r="I16" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Professor 25</t>
+          <t>Professor 14</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -1204,28 +1204,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>15057046</v>
+        <v>15056651</v>
       </c>
       <c r="F17" t="n">
-        <v>1920914340000</v>
+        <v>1920932310000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>EEEFM DO ROCHA</t>
+          <t>EEEF JOAO PAULO II</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>2002</v>
       </c>
       <c r="I17" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Professor 3</t>
+          <t>Professor 6</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1250,28 +1250,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>15057046</v>
+        <v>15056651</v>
       </c>
       <c r="F18" t="n">
-        <v>1920914340000</v>
+        <v>1920932310000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>EEEFM DO ROCHA</t>
+          <t>EEEF JOAO PAULO II</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2003</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>40</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Professor 13</t>
+          <t>Professor 24</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -1296,17 +1296,17 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>15057046</v>
+        <v>15057291</v>
       </c>
       <c r="F19" t="n">
-        <v>1920914340000</v>
+        <v>1920913530000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>EEEFM DO ROCHA</t>
+          <t>EEEF PATALINO</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Professor 23</t>
+          <t>Professor 25</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1342,36 +1342,266 @@
         </is>
       </c>
       <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15057291</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1920913530000</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>EEEF PATALINO</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2003</v>
+      </c>
+      <c r="I20" t="n">
+        <v>40</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Professor 11</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01A URE - BRAGANCA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>BRAGANCA</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15057291</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1920913530000</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>EEEF PATALINO</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2002</v>
+      </c>
+      <c r="I21" t="n">
+        <v>20</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Professor 4</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01A URE - BRAGANCA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>BRAGANCA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>5</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E22" t="n">
         <v>15057046</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F22" t="n">
         <v>1920914340000</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>EEEFM DO ROCHA</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>40</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>40</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>Professor 28</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01A URE - BRAGANCA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BRAGANCA</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15057046</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1920914340000</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>EEEFM DO ROCHA</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2003</v>
+      </c>
+      <c r="I23" t="n">
+        <v>40</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Professor 13</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01A URE - BRAGANCA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>BRAGANCA</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>15057046</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1920914340000</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>EEEFM DO ROCHA</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2002</v>
+      </c>
+      <c r="I24" t="n">
+        <v>40</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Professor 3</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01A URE - BRAGANCA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>BRAGANCA</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>15057046</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1920914340000</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>EEEFM DO ROCHA</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>40</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Professor 23</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1386,7 +1616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1564,29 +1794,29 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>15057291</v>
+        <v>15056651</v>
       </c>
       <c r="F2" t="n">
-        <v>1920913530000</v>
+        <v>1920932310000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>EEEF PATALINO</t>
+          <t>EEEF JOAO PAULO II</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2002</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Professor 24</t>
+          <t>Professor 10</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>5951399</v>
+        <v>5951385</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -1596,19 +1826,19 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t xml:space="preserve">NAO </t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NAO</t>
         </is>
       </c>
       <c r="O2" s="2" t="n">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>44536</v>
+        <v>44522</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -1620,7 +1850,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>NAO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="T2" t="n">
@@ -1628,7 +1858,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>MATEMATICA</t>
+          <t>GEOGRAFIA</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -1639,17 +1869,17 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>NAO</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AA2" t="n">
@@ -1661,7 +1891,9 @@
       <c r="AC2" t="n">
         <v>2</v>
       </c>
-      <c r="AD2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -1677,17 +1909,17 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>15550079</v>
+        <v>15055582</v>
       </c>
       <c r="F3" t="n">
-        <v>1920930000000</v>
+        <v>1920910000000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>EE BENEDITO CARDOSO DE ATAYDE</t>
+          <t>EE ANDRE ALVES</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1695,11 +1927,11 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Professor 26</t>
+          <t>Professor 30</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>5951401</v>
+        <v>5951405</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -1709,31 +1941,31 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t xml:space="preserve">NAO </t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">NAO </t>
+          <t>NAO</t>
         </is>
       </c>
       <c r="O3" s="2" t="n">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>44538</v>
+        <v>44542</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>TERCEIRO</t>
+          <t>PRIMEIRO</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>NAO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="T3" t="n">
@@ -1748,34 +1980,34 @@
         <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>NAO</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC3" t="n">
         <v>2</v>
       </c>
-      <c r="AC3" t="n">
-        <v>3</v>
-      </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="inlineStr"/>
     </row>
@@ -1806,25 +2038,25 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2003</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Professor 27</t>
+          <t>Professor 19</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>5951402</v>
+        <v>5951394</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t xml:space="preserve">NAO </t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1833,17 +2065,17 @@
         </is>
       </c>
       <c r="O4" s="2" t="n">
-        <v>44150</v>
+        <v>44146</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>44539</v>
+        <v>44525</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>PRIMEIRO</t>
+          <t>TERCEIRO</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1856,14 +2088,14 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>MATEMATICA</t>
+          <t>HISTORIA</t>
         </is>
       </c>
       <c r="V4" t="n">
         <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1877,20 +2109,24 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
         <v>2</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD4" t="n">
         <v>4</v>
       </c>
-      <c r="AC4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
+      <c r="AE4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1905,17 +2141,17 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>15056651</v>
+        <v>15055582</v>
       </c>
       <c r="F5" t="n">
-        <v>1920932310000</v>
+        <v>1920910000000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>EEEF JOAO PAULO II</t>
+          <t>EE ANDRE ALVES</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1923,11 +2159,11 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Professor 17</t>
+          <t>Professor 20</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>5951392</v>
+        <v>5951395</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -1937,7 +2173,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t xml:space="preserve">NAO </t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1946,10 +2182,10 @@
         </is>
       </c>
       <c r="O5" s="2" t="n">
-        <v>44150</v>
+        <v>44152</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>44538</v>
+        <v>44526</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -1994,15 +2230,17 @@
         </is>
       </c>
       <c r="AA5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC5" t="n">
         <v>2</v>
       </c>
-      <c r="AB5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
       <c r="AE5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -2018,58 +2256,58 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15057291</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1920913530000</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>EEEF PATALINO</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Professor 29</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>5951404</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>40</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NAO </t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NAO</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>44146</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>44541</v>
+      </c>
+      <c r="Q6" t="n">
         <v>3</v>
       </c>
-      <c r="E6" t="n">
-        <v>15056651</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1920932310000</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>EEEF JOAO PAULO II</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2002</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Professor 7</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>5974417</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>20</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>44150</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>44523</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>PRIMEIRO</t>
+          <t>TERCEIRO</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -2082,14 +2320,14 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>GEOGRAFIA</t>
+          <t>MATEMATICA</t>
         </is>
       </c>
       <c r="V6" t="n">
         <v>3</v>
       </c>
       <c r="W6" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -2098,7 +2336,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>NAO</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -2107,16 +2345,20 @@
         </is>
       </c>
       <c r="AA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="n">
         <v>2</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD6" t="n">
         <v>4</v>
       </c>
-      <c r="AC6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
+      <c r="AE6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2149,17 +2391,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Professor 10</t>
+          <t>Professor 9</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>5951385</v>
+        <v>5951384</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -2172,17 +2414,17 @@
         </is>
       </c>
       <c r="O7" s="2" t="n">
-        <v>44152</v>
+        <v>44146</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>44522</v>
+        <v>44521</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>PRIMEIRO</t>
+          <t>TERCEIRO</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -2202,7 +2444,7 @@
         <v>3</v>
       </c>
       <c r="W7" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -2220,597 +2462,18 @@
         </is>
       </c>
       <c r="AA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD7" t="n">
         <v>4</v>
       </c>
-      <c r="AB7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>01A URE - BRAGANCA</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>BRAGANCA</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>15055582</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1920910000000</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>EE ANDRE ALVES</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Professor 30</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>5951405</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>20</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NAO </t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>44152</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>44542</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>PRIMEIRO</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v>2023</v>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>MATEMATICA</t>
-        </is>
-      </c>
-      <c r="V8" t="n">
-        <v>3</v>
-      </c>
-      <c r="W8" t="n">
-        <v>39</v>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AA8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>01A URE - BRAGANCA</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BRAGANCA</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="n">
-        <v>15056651</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1920932310000</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>EEEF JOAO PAULO II</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2003</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Professor 19</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>5951394</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>40</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NAO </t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>44146</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>44525</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>2023</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>HISTORIA</t>
-        </is>
-      </c>
-      <c r="V9" t="n">
-        <v>3</v>
-      </c>
-      <c r="W9" t="n">
-        <v>33</v>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>01A URE - BRAGANCA</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>BRAGANCA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>15055582</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1920910000000</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>EE ANDRE ALVES</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2003</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Professor 20</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>5951395</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>20</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NAO </t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>44152</v>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>44526</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>PRIMEIRO</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="T10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>HISTORIA</t>
-        </is>
-      </c>
-      <c r="V10" t="n">
-        <v>3</v>
-      </c>
-      <c r="W10" t="n">
-        <v>39</v>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AA10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>01A URE - BRAGANCA</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>BRAGANCA</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>15057291</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1920913530000</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>EEEF PATALINO</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Professor 29</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>5951404</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>40</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NAO </t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>44146</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>44541</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="T11" t="n">
-        <v>2023</v>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>MATEMATICA</t>
-        </is>
-      </c>
-      <c r="V11" t="n">
-        <v>3</v>
-      </c>
-      <c r="W11" t="n">
-        <v>33</v>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AA11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>01A URE - BRAGANCA</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>BRAGANCA</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>15056651</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1920932310000</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>EEEF JOAO PAULO II</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2002</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Professor 9</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>5951384</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>40</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NAO </t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>44146</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>44521</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="T12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>GEOGRAFIA</t>
-        </is>
-      </c>
-      <c r="V12" t="n">
-        <v>3</v>
-      </c>
-      <c r="W12" t="n">
-        <v>33</v>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AA12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AE7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2825,7 +2488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2876,12 +2539,17 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>CH_HORARIA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>VAGAS</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CH_HORARIA</t>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CH_RELATIVA</t>
         </is>
       </c>
     </row>
@@ -2915,10 +2583,13 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2622,13 @@
         <v>2002</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -2987,10 +2661,13 @@
         <v>2003</v>
       </c>
       <c r="I4" t="n">
+        <v>40</v>
+      </c>
+      <c r="J4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
-        <v>40</v>
+      <c r="K4" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -3023,10 +2700,13 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/lotacaoNova.xlsx
+++ b/lotacaoNova.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,7 +592,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Professor 98</t>
+          <t>Professor 24</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -636,14 +636,14 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Professor 17</t>
+          <t>Professor 98</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -694,7 +694,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Professor 16</t>
+          <t>Professor 17</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -738,14 +738,14 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Professor 8</t>
+          <t>Professor 96</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -789,14 +789,14 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Professor 28</t>
+          <t>Professor 16</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -847,7 +847,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Professor 1</t>
+          <t>Professor 8</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -877,28 +877,28 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>15550079</v>
+        <v>15055582</v>
       </c>
       <c r="G9" t="n">
-        <v>1920928040000</v>
+        <v>1920914550000</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
+          <t>EEEM ANDRE ALVES</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="J9" t="n">
         <v>40</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Professor 5</t>
+          <t>Professor 26</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -928,28 +928,28 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>15550079</v>
+        <v>15055582</v>
       </c>
       <c r="G10" t="n">
-        <v>1920928040000</v>
+        <v>1920914550000</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
+          <t>EEEM ANDRE ALVES</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="J10" t="n">
         <v>40</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Professor 11</t>
+          <t>Professor 1</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -993,14 +993,14 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="J11" t="n">
         <v>40</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Professor 22</t>
+          <t>Professor 5</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Professor 12</t>
+          <t>Professor 93</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1095,14 +1095,14 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J13" t="n">
         <v>40</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Professor 2</t>
+          <t>Professor 99</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Professor 18</t>
+          <t>Professor 12</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1183,28 +1183,28 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>15056651</v>
+        <v>15550079</v>
       </c>
       <c r="G15" t="n">
-        <v>1920932310000</v>
+        <v>1920928040000</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>EEEF JOAO PAULO II</t>
+          <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="J15" t="n">
         <v>40</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Professor 94</t>
+          <t>Professor 18</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1234,28 +1234,28 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>15056651</v>
+        <v>15550079</v>
       </c>
       <c r="G16" t="n">
-        <v>1920932310000</v>
+        <v>1920928040000</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>EEEF JOAO PAULO II</t>
+          <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="J16" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Professor 14</t>
+          <t>Professor 22</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -1285,28 +1285,28 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>15056651</v>
+        <v>15550079</v>
       </c>
       <c r="G17" t="n">
-        <v>1920932310000</v>
+        <v>1920928040000</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>EEEF JOAO PAULO II</t>
+          <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J17" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Professor 6</t>
+          <t>Professor 11</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -1336,28 +1336,28 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>15057291</v>
+        <v>15550079</v>
       </c>
       <c r="G18" t="n">
-        <v>1920913530000</v>
+        <v>1920928040000</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>EEEF PATALINO</t>
+          <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="J18" t="n">
         <v>40</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Professor 15</t>
+          <t>Professor 2</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1387,17 +1387,17 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>15057291</v>
+        <v>15056651</v>
       </c>
       <c r="G19" t="n">
-        <v>1920913530000</v>
+        <v>1920932310000</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>EEEF PATALINO</t>
+          <t>EEEF JOAO PAULO II</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Professor 96</t>
+          <t>Professor 95</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1438,17 +1438,17 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>15057291</v>
+        <v>15056651</v>
       </c>
       <c r="G20" t="n">
-        <v>1920913530000</v>
+        <v>1920932310000</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>EEEF PATALINO</t>
+          <t>EEEF JOAO PAULO II</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Professor 4</t>
+          <t>Professor 6</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1489,28 +1489,28 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>15057046</v>
+        <v>15056651</v>
       </c>
       <c r="G21" t="n">
-        <v>1920914340000</v>
+        <v>1920932310000</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>EEEFM DO ROCHA</t>
+          <t>EEEF JOAO PAULO II</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="J21" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Professor 25</t>
+          <t>Professor 14</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -1540,28 +1540,28 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>15057046</v>
+        <v>15057291</v>
       </c>
       <c r="G22" t="n">
-        <v>1920914340000</v>
+        <v>1920913530000</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>EEEFM DO ROCHA</t>
+          <t>EEEF PATALINO</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="J22" t="n">
         <v>40</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Professor 13</t>
+          <t>Professor 25</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1591,28 +1591,28 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>15057046</v>
+        <v>15057291</v>
       </c>
       <c r="G23" t="n">
-        <v>1920914340000</v>
+        <v>1920913530000</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>EEEFM DO ROCHA</t>
+          <t>EEEF PATALINO</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>2002</v>
       </c>
       <c r="J23" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Professor 3</t>
+          <t>Professor 4</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -1642,28 +1642,28 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>15057046</v>
+        <v>15057291</v>
       </c>
       <c r="G24" t="n">
-        <v>1920914340000</v>
+        <v>1920913530000</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>EEEFM DO ROCHA</t>
+          <t>EEEF PATALINO</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="J24" t="n">
         <v>40</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Professor 23</t>
+          <t>Professor 15</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1689,40 +1689,244 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>15057046</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1920914340000</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>EEEFM DO ROCHA</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>2002</v>
+      </c>
+      <c r="J25" t="n">
+        <v>40</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Professor 3</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01A URE - BRAGANCA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>BRAGANCA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>15057046</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1920914340000</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>EEEFM DO ROCHA</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>2006</v>
+      </c>
+      <c r="J26" t="n">
+        <v>40</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Professor 23</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>01A URE - BRAGANCA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>BRAGANCA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>15057046</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1920914340000</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>EEEFM DO ROCHA</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>2006</v>
+      </c>
+      <c r="J27" t="n">
+        <v>40</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Professor 28</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>01A URE - BRAGANCA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BRAGANCA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>15057046</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1920914340000</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>EEEFM DO ROCHA</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>2003</v>
+      </c>
+      <c r="J28" t="n">
+        <v>40</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Professor 13</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>01A URE - BRAGANCA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BRAGANCA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="E29" t="n">
         <v>6</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F29" t="n">
         <v>15055582</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G29" t="n">
         <v>1920910000000</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>ESCOLA X</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="I29" t="n">
         <v>2006</v>
       </c>
-      <c r="J25" t="n">
-        <v>40</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Professor 95</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="J29" t="n">
+        <v>40</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Professor 94</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1737,7 +1941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1911,6 +2115,11 @@
           <t>PREFERENCIA 5</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>LOTADO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1926,39 +2135,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>15057291</v>
+        <v>15055582</v>
       </c>
       <c r="G2" t="n">
-        <v>1920913530000</v>
+        <v>1920910000000</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EEEF PATALINO</t>
+          <t>ESCOLA X</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Professor 24</t>
+          <t>Professor 96</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>5951399</v>
+        <v>5951405</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -1967,14 +2176,14 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NAO</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="Q2" t="n">
-        <v>44536</v>
+        <v>44542</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -1986,7 +2195,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>NAO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -2005,31 +2214,42 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
           <t>NAO</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AB2" t="n">
+        <v>2003</v>
+      </c>
       <c r="AC2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD2" t="n">
         <v>4</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>3</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>2</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2045,39 +2265,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>15550079</v>
+        <v>15055582</v>
       </c>
       <c r="G3" t="n">
-        <v>1920930000000</v>
+        <v>1920910000000</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EE BENEDITO CARDOSO DE ATAYDE</t>
+          <t>ESCOLA X</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Professor 26</t>
+          <t>Professor 97</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>5951401</v>
+        <v>5951405</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -2086,26 +2306,26 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t xml:space="preserve">NAO </t>
+          <t>NAO</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="Q3" t="n">
-        <v>44538</v>
+        <v>44542</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>TERCEIRO</t>
+          <t>PRIMEIRO</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>NAO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -2113,44 +2333,49 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>MATEMATICA</t>
+          <t>GEOGRAFIA</t>
         </is>
       </c>
       <c r="W3" t="n">
         <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
           <t>NAO</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
+        <v>2003</v>
+      </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
       </c>
       <c r="AF3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG3" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2184,15 +2409,15 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Professor 7</t>
+          <t>Professor 27</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>5974417</v>
+        <v>5951402</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -2214,7 +2439,7 @@
         <v>44150</v>
       </c>
       <c r="Q4" t="n">
-        <v>44523</v>
+        <v>44539</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
@@ -2234,7 +2459,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>GEOGRAFIA</t>
+          <t>MATEMATICA</t>
         </is>
       </c>
       <c r="W4" t="n">
@@ -2255,7 +2480,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AB4" t="n">
@@ -2272,6 +2497,7 @@
       </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2305,15 +2531,15 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Professor 27</t>
+          <t>Professor 7</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>5951402</v>
+        <v>5974417</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -2335,7 +2561,7 @@
         <v>44150</v>
       </c>
       <c r="Q5" t="n">
-        <v>44539</v>
+        <v>44523</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -2355,7 +2581,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>MATEMATICA</t>
+          <t>GEOGRAFIA</t>
         </is>
       </c>
       <c r="W5" t="n">
@@ -2376,7 +2602,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AB5" t="n">
@@ -2393,6 +2619,7 @@
       </c>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2408,11 +2635,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>15055582</v>
@@ -2422,29 +2649,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ESCOLA X</t>
+          <t>EE ANDRE ALVES</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Professor 97</t>
+          <t>Professor 20</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>5951405</v>
+        <v>5951395</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t xml:space="preserve">NAO </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -2456,7 +2683,7 @@
         <v>44152</v>
       </c>
       <c r="Q6" t="n">
-        <v>44542</v>
+        <v>44526</v>
       </c>
       <c r="R6" t="n">
         <v>1</v>
@@ -2476,7 +2703,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>GEOGRAFIA</t>
+          <t>HISTORIA</t>
         </is>
       </c>
       <c r="W6" t="n">
@@ -2497,27 +2724,26 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2533,33 +2759,33 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>15055582</v>
+        <v>15056651</v>
       </c>
       <c r="G7" t="n">
-        <v>1920910000000</v>
+        <v>1920932310000</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ESCOLA X</t>
+          <t>EEEF JOAO PAULO II</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Professor 99</t>
+          <t>Professor 9</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>5951405</v>
+        <v>5951384</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -2569,26 +2795,26 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t xml:space="preserve">NAO </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NAO</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>44152</v>
+        <v>44146</v>
       </c>
       <c r="Q7" t="n">
-        <v>44542</v>
+        <v>44521</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>PRIMEIRO</t>
+          <t>TERCEIRO</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -2601,14 +2827,14 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>MATEMATICA</t>
+          <t>GEOGRAFIA</t>
         </is>
       </c>
       <c r="W7" t="n">
         <v>3</v>
       </c>
       <c r="X7" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
@@ -2622,27 +2848,28 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="AC7" t="n">
         <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>3</v>
       </c>
       <c r="AF7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG7" t="n">
         <v>5</v>
       </c>
+      <c r="AH7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2766,6 +2993,7 @@
         <v>1</v>
       </c>
       <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2785,17 +3013,17 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>15055582</v>
+        <v>15057291</v>
       </c>
       <c r="G9" t="n">
-        <v>1920910000000</v>
+        <v>1920913530000</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>EE ANDRE ALVES</t>
+          <t>EEEF PATALINO</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -2803,17 +3031,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Professor 30</t>
+          <t>Professor 29</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>5951405</v>
+        <v>5951404</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -2826,17 +3054,17 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>44152</v>
+        <v>44146</v>
       </c>
       <c r="Q9" t="n">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>PRIMEIRO</t>
+          <t>TERCEIRO</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2856,7 +3084,7 @@
         <v>3</v>
       </c>
       <c r="X9" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
@@ -2865,30 +3093,33 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>NAO</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF9" t="n">
         <v>4</v>
       </c>
-      <c r="AD9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG9" t="inlineStr"/>
+      <c r="AG9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2908,35 +3139,35 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>15056651</v>
+        <v>15055582</v>
       </c>
       <c r="G10" t="n">
-        <v>1920932310000</v>
+        <v>1920910000000</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>EEEF JOAO PAULO II</t>
+          <t>EE ANDRE ALVES</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Professor 19</t>
+          <t>Professor 30</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>5951394</v>
+        <v>5951405</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -2949,17 +3180,17 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>44146</v>
+        <v>44152</v>
       </c>
       <c r="Q10" t="n">
-        <v>44525</v>
+        <v>44542</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>TERCEIRO</t>
+          <t>PRIMEIRO</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2972,14 +3203,14 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>HISTORIA</t>
+          <t>MATEMATICA</t>
         </is>
       </c>
       <c r="W10" t="n">
         <v>3</v>
       </c>
       <c r="X10" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
@@ -2993,27 +3224,26 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AB10" t="n">
         <v>2002</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE10" t="n">
         <v>2</v>
       </c>
-      <c r="AE10" t="n">
-        <v>3</v>
-      </c>
       <c r="AF10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3033,17 +3263,17 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>15055582</v>
+        <v>15056651</v>
       </c>
       <c r="G11" t="n">
-        <v>1920910000000</v>
+        <v>1920932310000</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>EE ANDRE ALVES</t>
+          <t>EEEF JOAO PAULO II</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -3051,17 +3281,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Professor 20</t>
+          <t>Professor 19</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>5951395</v>
+        <v>5951394</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -3074,17 +3304,17 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>44152</v>
+        <v>44146</v>
       </c>
       <c r="Q11" t="n">
-        <v>44526</v>
+        <v>44525</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>PRIMEIRO</t>
+          <t>TERCEIRO</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -3104,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="X11" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
@@ -3118,275 +3348,28 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AB11" t="n">
         <v>2002</v>
       </c>
       <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF11" t="n">
         <v>4</v>
       </c>
-      <c r="AD11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>01A URE - BRAGANCA</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>BRAGANCA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>15056651</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1920932310000</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>EEEF JOAO PAULO II</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>2002</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Professor 9</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>5951384</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>40</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NAO </t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>44146</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>44521</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="U12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>GEOGRAFIA</t>
-        </is>
-      </c>
-      <c r="W12" t="n">
-        <v>3</v>
-      </c>
-      <c r="X12" t="n">
-        <v>33</v>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v>2006</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AG11" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>01A URE - BRAGANCA</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>BRAGANCA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>15057291</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1920913530000</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>EEEF PATALINO</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>2006</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Professor 29</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>5951404</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>40</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NAO </t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>NAO</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>44146</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>44541</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>TERCEIRO</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="U13" t="n">
-        <v>2023</v>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>MATEMATICA</t>
-        </is>
-      </c>
-      <c r="W13" t="n">
-        <v>3</v>
-      </c>
-      <c r="X13" t="n">
-        <v>33</v>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v>2003</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>5</v>
-      </c>
+      <c r="AH11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3399,7 +3382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3469,50 +3452,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01A URE - BRAGANCA</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>BRAGANCA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>15550079</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1920928040000</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>2003</v>
-      </c>
-      <c r="J2" t="n">
-        <v>40</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>80</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/lotacaoNova.xlsx
+++ b/lotacaoNova.xlsx
@@ -585,14 +585,14 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Professor 24</t>
+          <t>Professor 99</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -694,7 +694,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Professor 17</t>
+          <t>Professor 16</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -738,14 +738,14 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Professor 96</t>
+          <t>Professor 8</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -789,14 +789,14 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Professor 16</t>
+          <t>Professor 28</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -840,14 +840,14 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Professor 8</t>
+          <t>Professor 17</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -891,14 +891,14 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="J9" t="n">
         <v>40</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Professor 26</t>
+          <t>Professor 1</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -928,28 +928,28 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>15055582</v>
+        <v>15550079</v>
       </c>
       <c r="G10" t="n">
-        <v>1920914550000</v>
+        <v>1920928040000</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>EEEM ANDRE ALVES</t>
+          <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J10" t="n">
         <v>40</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Professor 1</t>
+          <t>Professor 96</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -993,14 +993,14 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J11" t="n">
         <v>40</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Professor 5</t>
+          <t>Professor 93</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1044,14 +1044,14 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="J12" t="n">
         <v>40</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Professor 93</t>
+          <t>Professor 22</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Professor 99</t>
+          <t>Professor 12</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Professor 12</t>
+          <t>Professor 15</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1197,14 +1197,14 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="J15" t="n">
         <v>40</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Professor 18</t>
+          <t>Professor 5</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1248,14 +1248,14 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="J16" t="n">
         <v>40</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Professor 22</t>
+          <t>Professor 11</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1299,14 +1299,14 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="J17" t="n">
         <v>40</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Professor 11</t>
+          <t>Professor 2</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1336,28 +1336,28 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>15550079</v>
+        <v>15056651</v>
       </c>
       <c r="G18" t="n">
-        <v>1920928040000</v>
+        <v>1920932310000</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
+          <t>EEEF JOAO PAULO II</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J18" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Professor 2</t>
+          <t>Professor 14</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Professor 95</t>
+          <t>Professor 26</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Professor 6</t>
+          <t>Professor 7</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1503,14 +1503,14 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="J21" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Professor 14</t>
+          <t>Professor 27</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1554,14 +1554,14 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="J22" t="n">
         <v>40</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Professor 25</t>
+          <t>Professor 18</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1656,14 +1656,14 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="J24" t="n">
         <v>40</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Professor 15</t>
+          <t>Professor 95</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1707,14 +1707,14 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="J25" t="n">
         <v>40</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Professor 3</t>
+          <t>Professor 25</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1758,14 +1758,14 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="J26" t="n">
         <v>40</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Professor 23</t>
+          <t>Professor 13</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Professor 28</t>
+          <t>Professor 23</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1860,14 +1860,14 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="J28" t="n">
         <v>40</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Professor 13</t>
+          <t>Professor 3</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2153,11 +2153,11 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Professor 96</t>
+          <t>Professor 97</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>MATEMATICA</t>
+          <t>GEOGRAFIA</t>
         </is>
       </c>
       <c r="W2" t="n">
@@ -2245,11 +2245,7 @@
       <c r="AG2" t="n">
         <v>1</v>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+      <c r="AH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2283,11 +2279,11 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Professor 97</t>
+          <t>Professor 99</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -2306,7 +2302,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>NAO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -2333,7 +2329,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>GEOGRAFIA</t>
+          <t>MATEMATICA</t>
         </is>
       </c>
       <c r="W3" t="n">
@@ -2358,10 +2354,10 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
         <v>4</v>
@@ -2373,9 +2369,13 @@
         <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2395,29 +2395,29 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>15056651</v>
+        <v>15550079</v>
       </c>
       <c r="G4" t="n">
-        <v>1920932310000</v>
+        <v>1920930000000</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EEEF JOAO PAULO II</t>
+          <t>EE BENEDITO CARDOSO DE ATAYDE</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Professor 27</t>
+          <t>Professor 6</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>5951402</v>
+        <v>5936943</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -2432,26 +2432,26 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t xml:space="preserve">NAO </t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>44153</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>44535</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>TERCEIRO</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
           <t>NAO</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>44150</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>44539</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>PRIMEIRO</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>SIM</t>
         </is>
       </c>
       <c r="U4" t="n">
@@ -2459,18 +2459,18 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>MATEMATICA</t>
+          <t>GEOGRAFIA</t>
         </is>
       </c>
       <c r="W4" t="n">
         <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NAO</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -2480,22 +2480,24 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="n">
         <v>2</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF4" t="n">
         <v>4</v>
       </c>
-      <c r="AE4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
     </row>
@@ -2517,29 +2519,29 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>15056651</v>
+        <v>15057291</v>
       </c>
       <c r="G5" t="n">
-        <v>1920932310000</v>
+        <v>1920913530000</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EEEF JOAO PAULO II</t>
+          <t>EEEF PATALINO</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Professor 7</t>
+          <t>Professor 24</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>5974417</v>
+        <v>5951399</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -2554,14 +2556,14 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>NAO</t>
+          <t>SIM</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>44150</v>
+        <v>44151</v>
       </c>
       <c r="Q5" t="n">
-        <v>44523</v>
+        <v>44536</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -2573,7 +2575,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NAO</t>
         </is>
       </c>
       <c r="U5" t="n">
@@ -2581,7 +2583,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>GEOGRAFIA</t>
+          <t>MATEMATICA</t>
         </is>
       </c>
       <c r="W5" t="n">
@@ -2592,7 +2594,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>NAO</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -2605,17 +2607,15 @@
           <t>T</t>
         </is>
       </c>
-      <c r="AB5" t="n">
-        <v>2003</v>
-      </c>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE5" t="n">
         <v>2</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1</v>
       </c>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
@@ -2639,29 +2639,29 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>15055582</v>
+        <v>15056651</v>
       </c>
       <c r="G6" t="n">
-        <v>1920910000000</v>
+        <v>1920932310000</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>EE ANDRE ALVES</t>
+          <t>EEEF JOAO PAULO II</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Professor 20</t>
+          <t>Professor 10</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>5951395</v>
+        <v>5951385</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -2683,7 +2683,7 @@
         <v>44152</v>
       </c>
       <c r="Q6" t="n">
-        <v>44526</v>
+        <v>44522</v>
       </c>
       <c r="R6" t="n">
         <v>1</v>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>HISTORIA</t>
+          <t>GEOGRAFIA</t>
         </is>
       </c>
       <c r="W6" t="n">
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="AC6" t="n">
         <v>4</v>
@@ -2777,15 +2777,15 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Professor 9</t>
+          <t>Professor 19</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>5951384</v>
+        <v>5951394</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -2807,7 +2807,7 @@
         <v>44146</v>
       </c>
       <c r="Q7" t="n">
-        <v>44521</v>
+        <v>44525</v>
       </c>
       <c r="R7" t="n">
         <v>3</v>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>GEOGRAFIA</t>
+          <t>HISTORIA</t>
         </is>
       </c>
       <c r="W7" t="n">
@@ -2848,11 +2848,11 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="AC7" t="n">
         <v>1</v>
@@ -2889,29 +2889,29 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>15056651</v>
+        <v>15055582</v>
       </c>
       <c r="G8" t="n">
-        <v>1920932310000</v>
+        <v>1920910000000</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>EEEF JOAO PAULO II</t>
+          <t>EE ANDRE ALVES</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Professor 10</t>
+          <t>Professor 20</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>5951385</v>
+        <v>5951395</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -2933,7 +2933,7 @@
         <v>44152</v>
       </c>
       <c r="Q8" t="n">
-        <v>44522</v>
+        <v>44526</v>
       </c>
       <c r="R8" t="n">
         <v>1</v>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>GEOGRAFIA</t>
+          <t>HISTORIA</t>
         </is>
       </c>
       <c r="W8" t="n">
@@ -2978,7 +2978,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="AC8" t="n">
         <v>4</v>
@@ -3277,15 +3277,15 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Professor 19</t>
+          <t>Professor 9</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>5951394</v>
+        <v>5951384</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -3307,7 +3307,7 @@
         <v>44146</v>
       </c>
       <c r="Q11" t="n">
-        <v>44525</v>
+        <v>44521</v>
       </c>
       <c r="R11" t="n">
         <v>3</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>HISTORIA</t>
+          <t>GEOGRAFIA</t>
         </is>
       </c>
       <c r="W11" t="n">
@@ -3348,11 +3348,11 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="AC11" t="n">
         <v>1</v>

--- a/lotacaoNova.xlsx
+++ b/lotacaoNova.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,6 +501,11 @@
           <t>JORNADA</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>CH_EM_ABERTO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -552,6 +557,7 @@
       <c r="M2" t="n">
         <v>40</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -603,6 +609,11 @@
       <c r="M3" t="n">
         <v>40</v>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -654,6 +665,7 @@
       <c r="M4" t="n">
         <v>40</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -705,6 +717,7 @@
       <c r="M5" t="n">
         <v>20</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -756,6 +769,7 @@
       <c r="M6" t="n">
         <v>40</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -807,6 +821,7 @@
       <c r="M7" t="n">
         <v>40</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -858,6 +873,7 @@
       <c r="M8" t="n">
         <v>20</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -909,6 +925,7 @@
       <c r="M9" t="n">
         <v>40</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -960,6 +977,7 @@
       <c r="M10" t="n">
         <v>40</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1011,6 +1029,7 @@
       <c r="M11" t="n">
         <v>40</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1062,6 +1081,7 @@
       <c r="M12" t="n">
         <v>40</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1113,6 +1133,7 @@
       <c r="M13" t="n">
         <v>40</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1164,6 +1185,7 @@
       <c r="M14" t="n">
         <v>40</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1215,6 +1237,7 @@
       <c r="M15" t="n">
         <v>40</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1266,6 +1289,7 @@
       <c r="M16" t="n">
         <v>40</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1317,6 +1341,7 @@
       <c r="M17" t="n">
         <v>40</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1368,6 +1393,7 @@
       <c r="M18" t="n">
         <v>20</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1419,6 +1445,7 @@
       <c r="M19" t="n">
         <v>20</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1470,6 +1497,7 @@
       <c r="M20" t="n">
         <v>20</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1521,6 +1549,7 @@
       <c r="M21" t="n">
         <v>20</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1572,6 +1601,7 @@
       <c r="M22" t="n">
         <v>40</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1623,6 +1653,7 @@
       <c r="M23" t="n">
         <v>20</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1674,6 +1705,7 @@
       <c r="M24" t="n">
         <v>40</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1725,6 +1757,7 @@
       <c r="M25" t="n">
         <v>40</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1776,6 +1809,7 @@
       <c r="M26" t="n">
         <v>40</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1827,6 +1861,7 @@
       <c r="M27" t="n">
         <v>40</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1878,6 +1913,7 @@
       <c r="M28" t="n">
         <v>40</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1929,6 +1965,7 @@
       <c r="M29" t="n">
         <v>40</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2117,7 +2154,7 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>LOTADO</t>
+          <t>CH_EM_ABERTO</t>
         </is>
       </c>
     </row>
@@ -2293,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -2373,7 +2410,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>SIM</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3452,6 +3489,50 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01A URE - BRAGANCA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BRAGANCA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15055582</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1920914550000</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>EEEM ANDRE ALVES</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/lotacaoNova.xlsx
+++ b/lotacaoNova.xlsx
@@ -2298,7 +2298,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E3" t="n">
